--- a/Digital Distance Measurement/Requirements & Test Plans/DDM review_log_sheet.xlsx
+++ b/Digital Distance Measurement/Requirements & Test Plans/DDM review_log_sheet.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Review No.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>Review No.( RV_changenum_document code)</t>
   </si>
   <si>
     <t>Document Name</t>
@@ -46,32 +46,26 @@
     <t>Ahmad Fanni</t>
   </si>
   <si>
-    <t>RV_changenum_document code</t>
-  </si>
-  <si>
-    <t>10 srs</t>
-  </si>
-  <si>
-    <t>11 crs</t>
-  </si>
-  <si>
-    <t>12 rtm</t>
-  </si>
-  <si>
-    <t>01 estimation sheet</t>
-  </si>
-  <si>
-    <t>02 risk sheet</t>
-  </si>
-  <si>
-    <t>03 projct scehdul</t>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>Estimation Sheet</t>
+  </si>
+  <si>
+    <t>risk sheet</t>
+  </si>
+  <si>
+    <t>projct scehdul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -81,8 +75,12 @@
       <b/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +127,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA64D79"/>
         <bgColor rgb="FFA64D79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -191,6 +195,9 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -211,8 +218,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="45.71"/>
     <col customWidth="1" min="2" max="2" width="21.0"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
+    <col customWidth="1" min="3" max="3" width="29.43"/>
     <col customWidth="1" min="4" max="4" width="32.57"/>
     <col customWidth="1" min="5" max="5" width="25.43"/>
     <col customWidth="1" min="6" max="6" width="17.57"/>
@@ -347,38 +355,54 @@
       <c r="F13" s="18"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="19"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19">
+        <v>11.0</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="19" t="s">
+    <row r="23">
+      <c r="A23" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="19" t="s">
+    <row r="24">
+      <c r="A24" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="19" t="s">
+    <row r="25">
+      <c r="A25" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="19" t="s">
+    <row r="26">
+      <c r="A26" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
